--- a/CAD/parts_list.xlsx
+++ b/CAD/parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Nextcloud2\Master\Robot_Project\scripts\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2E0EF-DCE9-4EED-9DD8-76F2B9F9F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBC85B9-EDFE-41B5-A773-F4F1132D9F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11280" xr2:uid="{19FC497D-8941-4135-BA9E-537B03F43F6E}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{19FC497D-8941-4135-BA9E-537B03F43F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -376,10 +376,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -388,19 +422,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -715,10 +756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5FBC6-994C-44A3-BC49-6EFCAB986C9B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:G52"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection sqref="A1:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,814 +777,874 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>3</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
     </row>
@@ -1549,5 +1653,6 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>